--- a/pred_ohlcv/54_21/2020-01-20 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FAB ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-856248.4041898987</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-856301.6241898987</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-891129.8635898987</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-933697.9855898987</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-971036.6241898986</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-956794.4997898986</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-947214.3007898986</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-942372.0735898986</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-912372.0735898986</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-819668.0541898987</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-739727.5523898987</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1075055.001389899</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1074055.001389899</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1081595.921389899</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1090492.711689899</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1094010.613689899</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1137375.645889899</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1137375.645889899</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1069271.467689899</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-591503.3812619654</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-739812.9277619654</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-619903.6042619655</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-813781.1544619654</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-802522.4121619654</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-804395.2565619653</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-806089.9216619653</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-782502.6346619653</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-784802.6346619653</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-809777.2139619653</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-788278.3279619652</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-809162.6409619652</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-793893.1848619652</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-793926.1848619652</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-791020.5166619653</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-791020.5166619653</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-891020.5166619653</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-848233.9467619653</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>4372527.422965665</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4057090.205077283</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4045216.586877283</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4329731.590121223</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4432627.188021223</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4534779.826377284</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4573084.420877283</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4583432.668677283</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4519229.818777284</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4600940.766577284</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4525281.672577284</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4598461.560227284</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4364457.722127284</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4396630.761127284</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4396544.761127284</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>8081057.913969896</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6943752.010623084</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7003950.352523085</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>9710692.197409423</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>12892200.80554673</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>13352301.51584702</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>14121931.18132881</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>14582816.44636853</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>16157974.81404493</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>17560705.30070728</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>17010111.44720728</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>18438707.50181922</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>17812811.31541922</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>17036811.49283144</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>16823057.18403718</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>17094491.45783718</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>17474053.98264245</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>17805697.51254245</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>16910164.42978657</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FAB ohlcv.xlsx
@@ -1406,7 +1406,7 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1081559.969189899</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1081595.921389899</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1069271.467689899</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-893481.0309748797</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-834971.5322748797</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>4372527.422965665</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4057090.205077283</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4045216.586877283</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4329731.590121223</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4432627.188021223</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4534779.826377284</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4573084.420877283</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4583432.668677283</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4519229.818777284</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4600940.766577284</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4525281.672577284</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4598461.560227284</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4364457.722127284</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4396630.761127284</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4396544.761127284</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>8081057.913969896</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6943752.010623084</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7003950.352523085</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>9710692.197409423</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>12892200.80554673</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>13352301.51584702</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>15240820.01654225</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>14582816.44636853</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>16157974.81404493</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>17010111.44720728</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>18045494.68800847</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>18438707.50181922</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>17812811.31541922</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>17036811.49283144</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>16823057.18403718</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>17094491.45783718</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>17899280.96754245</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>17474053.98264245</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>17805697.51254245</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>18057806.84534245</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>17745706.76204245</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>16910164.42978657</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>16258736.35093145</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>15237641.94548196</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>14910099.09198324</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>15335082.82928324</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>14708680.79093049</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>14507340.87625317</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>14814969.6675731</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>14652335.13727283</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>14513195.03677283</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>14515589.97576967</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>14506819.16453331</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>14527207.11633331</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
